--- a/Code/Results/Cases/Case_1_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.28585831080101</v>
+        <v>13.8629528957341</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.497732628285005</v>
+        <v>8.942448215102498</v>
       </c>
       <c r="E2">
-        <v>8.562176207157359</v>
+        <v>14.29024043334591</v>
       </c>
       <c r="F2">
-        <v>23.34584216705665</v>
+        <v>35.49363219902544</v>
       </c>
       <c r="G2">
-        <v>2.109658627087305</v>
+        <v>3.674716527338106</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.70618957067845</v>
+        <v>28.43855552673963</v>
       </c>
       <c r="J2">
-        <v>6.570339088097561</v>
+        <v>10.78638394133868</v>
       </c>
       <c r="K2">
-        <v>13.68380242536466</v>
+        <v>10.03716883476748</v>
       </c>
       <c r="L2">
-        <v>7.298033400069502</v>
+        <v>10.14703833950733</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.21216870132053</v>
+        <v>26.91738179466552</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59771931485322</v>
+        <v>13.71410000655744</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.41775603963122</v>
+        <v>8.944783443083029</v>
       </c>
       <c r="E3">
-        <v>8.625799196916264</v>
+        <v>14.32457908004933</v>
       </c>
       <c r="F3">
-        <v>23.27336299721778</v>
+        <v>35.59502380556452</v>
       </c>
       <c r="G3">
-        <v>2.114554340516095</v>
+        <v>3.676589619671166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.02161480413844</v>
+        <v>28.56434485224948</v>
       </c>
       <c r="J3">
-        <v>6.625336533074595</v>
+        <v>10.80684356715101</v>
       </c>
       <c r="K3">
-        <v>12.91175290578496</v>
+        <v>9.762976812841375</v>
       </c>
       <c r="L3">
-        <v>6.997617435125431</v>
+        <v>10.10566498267973</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.25753596036218</v>
+        <v>27.00805034755464</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.15674009390596</v>
+        <v>13.62381312636515</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.36989131743215</v>
+        <v>8.947202664733933</v>
       </c>
       <c r="E4">
-        <v>8.667571064598619</v>
+        <v>14.34705506051124</v>
       </c>
       <c r="F4">
-        <v>23.24789018967707</v>
+        <v>35.66475591643341</v>
       </c>
       <c r="G4">
-        <v>2.117657282603128</v>
+        <v>3.677801436754113</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.22442125103157</v>
+        <v>28.64608231189364</v>
       </c>
       <c r="J4">
-        <v>6.660262503657783</v>
+        <v>10.82008088483117</v>
       </c>
       <c r="K4">
-        <v>12.41324512723783</v>
+        <v>9.591599268351661</v>
       </c>
       <c r="L4">
-        <v>6.808710561469022</v>
+        <v>10.08144789431045</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.2992964283719</v>
+        <v>27.06903210795875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.97255024720377</v>
+        <v>13.58733578573416</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.350714921584613</v>
+        <v>8.948437097012734</v>
       </c>
       <c r="E5">
-        <v>8.685268112012192</v>
+        <v>14.35656493969131</v>
       </c>
       <c r="F5">
-        <v>23.24215297991321</v>
+        <v>35.69504952568217</v>
       </c>
       <c r="G5">
-        <v>2.118946640726821</v>
+        <v>3.678310832735795</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.3093277726498</v>
+        <v>28.68052474115756</v>
       </c>
       <c r="J5">
-        <v>6.67478991020033</v>
+        <v>10.82564542460316</v>
       </c>
       <c r="K5">
-        <v>12.20401839518132</v>
+        <v>9.521100875474929</v>
       </c>
       <c r="L5">
-        <v>6.730715718969211</v>
+        <v>10.07188413136261</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.31967918989847</v>
+        <v>27.09521638203076</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.94169982809261</v>
+        <v>13.58129884562683</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.347551037211891</v>
+        <v>8.948657109509115</v>
       </c>
       <c r="E6">
-        <v>8.688247272052772</v>
+        <v>14.35816525280937</v>
       </c>
       <c r="F6">
-        <v>23.24147649239969</v>
+        <v>35.7001930430493</v>
       </c>
       <c r="G6">
-        <v>2.119162254962761</v>
+        <v>3.678396359392875</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.32356205806369</v>
+        <v>28.68631240395978</v>
       </c>
       <c r="J6">
-        <v>6.677220087979811</v>
+        <v>10.82657970765976</v>
       </c>
       <c r="K6">
-        <v>12.16891170439136</v>
+        <v>9.509357793143588</v>
       </c>
       <c r="L6">
-        <v>6.717706839081703</v>
+        <v>10.07031467712126</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.32326315324339</v>
+        <v>27.09964476125155</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.15427398501028</v>
+        <v>13.62331985596005</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.36963134453874</v>
+        <v>8.947218305201934</v>
       </c>
       <c r="E7">
-        <v>8.667807009145813</v>
+        <v>14.34718189297951</v>
       </c>
       <c r="F7">
-        <v>23.24779420749636</v>
+        <v>35.66515687004336</v>
       </c>
       <c r="G7">
-        <v>2.117674569929942</v>
+        <v>3.677808243537588</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.22555721791074</v>
+        <v>28.64654222187172</v>
       </c>
       <c r="J7">
-        <v>6.660457226823062</v>
+        <v>10.82015524027694</v>
       </c>
       <c r="K7">
-        <v>12.41044793318035</v>
+        <v>9.59065104151934</v>
       </c>
       <c r="L7">
-        <v>6.807662651698712</v>
+        <v>10.0813176710755</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.29955786524481</v>
+        <v>27.06937984046473</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.05250177785967</v>
+        <v>13.81142010146824</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.469909273280095</v>
+        <v>8.943049377041902</v>
       </c>
       <c r="E8">
-        <v>8.583547805276268</v>
+        <v>14.30179194482514</v>
       </c>
       <c r="F8">
-        <v>23.3168181860447</v>
+        <v>35.52703837477804</v>
       </c>
       <c r="G8">
-        <v>2.111326856505054</v>
+        <v>3.675349586261448</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.81302952059407</v>
+        <v>28.48099420037105</v>
       </c>
       <c r="J8">
-        <v>6.589064316527744</v>
+        <v>10.79329861139712</v>
       </c>
       <c r="K8">
-        <v>13.42271421859687</v>
+        <v>9.943312463051692</v>
       </c>
       <c r="L8">
-        <v>7.195432778229723</v>
+        <v>10.13253062847771</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.22484598333912</v>
+        <v>26.94754099510118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.66224022017652</v>
+        <v>14.18747270281207</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.675651279027452</v>
+        <v>8.942656480635094</v>
       </c>
       <c r="E9">
-        <v>8.440085364250335</v>
+        <v>14.22379383464124</v>
       </c>
       <c r="F9">
-        <v>23.60918584976237</v>
+        <v>35.31564413072081</v>
       </c>
       <c r="G9">
-        <v>2.099624323387217</v>
+        <v>3.67101578466635</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.0784000627011</v>
+        <v>28.19200511213835</v>
       </c>
       <c r="J9">
-        <v>6.458068060876528</v>
+        <v>10.74596668558367</v>
       </c>
       <c r="K9">
-        <v>15.21149829302087</v>
+        <v>10.60685246852416</v>
       </c>
       <c r="L9">
-        <v>7.916570091556737</v>
+        <v>10.24207000559595</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.19458742937868</v>
+        <v>26.75083174205186</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.74728672616053</v>
+        <v>14.46596879952408</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.831347810955203</v>
+        <v>8.947061782047582</v>
       </c>
       <c r="E10">
-        <v>8.348384977835737</v>
+        <v>14.17315622092067</v>
       </c>
       <c r="F10">
-        <v>23.9274254319158</v>
+        <v>35.19674087252421</v>
       </c>
       <c r="G10">
-        <v>2.091445612531785</v>
+        <v>3.668125942569788</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.58702464359121</v>
+        <v>28.00131468088281</v>
       </c>
       <c r="J10">
-        <v>6.367056955747303</v>
+        <v>10.71441246028514</v>
       </c>
       <c r="K10">
-        <v>16.40437331604115</v>
+        <v>11.07231816356467</v>
       </c>
       <c r="L10">
-        <v>8.418007283182313</v>
+        <v>10.32768109231356</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.25135863258725</v>
+        <v>26.63214772137665</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.21904043144746</v>
+        <v>14.59268458502804</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.902953712252544</v>
+        <v>8.950073359612887</v>
       </c>
       <c r="E11">
-        <v>8.309747135268424</v>
+        <v>14.15155810025895</v>
       </c>
       <c r="F11">
-        <v>24.09615403729357</v>
+        <v>35.15058419654195</v>
       </c>
       <c r="G11">
-        <v>2.087807679628384</v>
+        <v>3.666874510594266</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.37481590380373</v>
+        <v>27.9192400465124</v>
       </c>
       <c r="J11">
-        <v>6.326731002577554</v>
+        <v>10.70075032327397</v>
       </c>
       <c r="K11">
-        <v>16.92060307275181</v>
+        <v>11.27837328422968</v>
       </c>
       <c r="L11">
-        <v>8.639253406484874</v>
+        <v>10.36764707517952</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.29607842681895</v>
+        <v>26.58378647441403</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.3945066785346</v>
+        <v>14.64063442439151</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.930164015969545</v>
+        <v>8.951357550864952</v>
       </c>
       <c r="E12">
-        <v>8.295568026083275</v>
+        <v>14.14358539256637</v>
       </c>
       <c r="F12">
-        <v>24.16360333803774</v>
+        <v>35.13424862282314</v>
       </c>
       <c r="G12">
-        <v>2.086441250188872</v>
+        <v>3.666409660593614</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.29616975469205</v>
+        <v>27.88883080327494</v>
       </c>
       <c r="J12">
-        <v>6.311610338888461</v>
+        <v>10.69567584448621</v>
       </c>
       <c r="K12">
-        <v>17.11229201486365</v>
+        <v>11.35551605703915</v>
       </c>
       <c r="L12">
-        <v>8.722001547347096</v>
+        <v>10.38291956023395</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.31587096710837</v>
+        <v>26.56628435649182</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.35685859615619</v>
+        <v>14.63030971641653</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.924299844946422</v>
+        <v>8.951074601388738</v>
       </c>
       <c r="E13">
-        <v>8.298601476690335</v>
+        <v>14.14529330452456</v>
       </c>
       <c r="F13">
-        <v>24.14891712372009</v>
+        <v>35.13771591570468</v>
       </c>
       <c r="G13">
-        <v>2.086735049760235</v>
+        <v>3.666509372991796</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.3130299520666</v>
+        <v>27.89535016805547</v>
       </c>
       <c r="J13">
-        <v>6.314860255242544</v>
+        <v>10.69676432479405</v>
       </c>
       <c r="K13">
-        <v>17.07117707310416</v>
+        <v>11.33894239208632</v>
       </c>
       <c r="L13">
-        <v>8.704226838405321</v>
+        <v>10.37962434817795</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.31147894241222</v>
+        <v>26.57001764246348</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.2335399684871</v>
+        <v>14.59663036021647</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.905190518504076</v>
+        <v>8.950176135991001</v>
       </c>
       <c r="E14">
-        <v>8.308571490382977</v>
+        <v>14.15089805522068</v>
       </c>
       <c r="F14">
-        <v>24.10163127227477</v>
+        <v>35.14921734094607</v>
       </c>
       <c r="G14">
-        <v>2.087695042828651</v>
+        <v>3.666836086177445</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.36831078219973</v>
+        <v>27.91672482529457</v>
       </c>
       <c r="J14">
-        <v>6.325484040159996</v>
+        <v>10.70033085971595</v>
       </c>
       <c r="K14">
-        <v>16.93644947187999</v>
+        <v>11.28473798636821</v>
       </c>
       <c r="L14">
-        <v>8.646082081463517</v>
+        <v>10.36890083119933</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.29764868685261</v>
+        <v>26.58233029604178</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.15758921659231</v>
+        <v>14.57599513511468</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.89349733783713</v>
+        <v>8.949644489253833</v>
       </c>
       <c r="E15">
-        <v>8.314737602454713</v>
+        <v>14.15435793958633</v>
       </c>
       <c r="F15">
-        <v>24.07313348198551</v>
+        <v>35.15641120304306</v>
       </c>
       <c r="G15">
-        <v>2.088284500296354</v>
+        <v>3.66703738343275</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.40239766143361</v>
+        <v>27.92990472522066</v>
       </c>
       <c r="J15">
-        <v>6.332010792272337</v>
+        <v>10.70252835501635</v>
       </c>
       <c r="K15">
-        <v>16.85343078492</v>
+        <v>11.25141895437828</v>
       </c>
       <c r="L15">
-        <v>8.610330994781183</v>
+        <v>10.36235011127636</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.28955363180616</v>
+        <v>26.58997785184655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.71601363683045</v>
+        <v>14.45768485319795</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.826682373033276</v>
+        <v>8.946885149334015</v>
       </c>
       <c r="E16">
-        <v>8.350972785772354</v>
+        <v>14.17459657443543</v>
       </c>
       <c r="F16">
-        <v>23.91689033618451</v>
+        <v>35.19991714720351</v>
       </c>
       <c r="G16">
-        <v>2.09168496320225</v>
+        <v>3.668208994008697</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.60112775160309</v>
+        <v>28.00677235645162</v>
       </c>
       <c r="J16">
-        <v>6.369713590895549</v>
+        <v>10.71531920109398</v>
       </c>
       <c r="K16">
-        <v>16.37010495247189</v>
+        <v>11.0587315710272</v>
       </c>
       <c r="L16">
-        <v>8.403406098014631</v>
+        <v>10.32508903779391</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.24882838890876</v>
+        <v>26.63542166544155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.43949748555339</v>
+        <v>14.38508453050104</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.785880487726982</v>
+        <v>8.945449673219951</v>
       </c>
       <c r="E17">
-        <v>8.373996713685901</v>
+        <v>14.18737996610856</v>
       </c>
       <c r="F17">
-        <v>23.82725766295298</v>
+        <v>35.22864012893637</v>
       </c>
       <c r="G17">
-        <v>2.093791707997118</v>
+        <v>3.668943887594232</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.72599819154907</v>
+        <v>28.05512381651168</v>
       </c>
       <c r="J17">
-        <v>6.393115167237537</v>
+        <v>10.72334290538214</v>
       </c>
       <c r="K17">
-        <v>16.06683354914133</v>
+        <v>10.93901696276289</v>
       </c>
       <c r="L17">
-        <v>8.274671259723023</v>
+        <v>10.30248604629056</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.22878491979128</v>
+        <v>26.6647429532391</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.2783982734518</v>
+        <v>14.34333150794043</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.762486617324046</v>
+        <v>8.944718934342845</v>
       </c>
       <c r="E18">
-        <v>8.387528478249218</v>
+        <v>14.19486794696303</v>
       </c>
       <c r="F18">
-        <v>23.7779524533222</v>
+        <v>35.24590740785779</v>
       </c>
       <c r="G18">
-        <v>2.095011271380151</v>
+        <v>3.669372527565439</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.79888011572624</v>
+        <v>28.08337405451839</v>
       </c>
       <c r="J18">
-        <v>6.406676657411426</v>
+        <v>10.72802309175045</v>
       </c>
       <c r="K18">
-        <v>15.8899128002512</v>
+        <v>10.86962859021887</v>
       </c>
       <c r="L18">
-        <v>8.19998282999846</v>
+        <v>10.28958203908642</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.21902649936267</v>
+        <v>26.6821374786535</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.22350132980145</v>
+        <v>14.3291966533031</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.754579153770301</v>
+        <v>8.944487852531104</v>
       </c>
       <c r="E19">
-        <v>8.392159454415811</v>
+        <v>14.19742650798636</v>
       </c>
       <c r="F19">
-        <v>23.76164136773871</v>
+        <v>35.25188196569427</v>
       </c>
       <c r="G19">
-        <v>2.095425558278097</v>
+        <v>3.669518680719273</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.82373630950159</v>
+        <v>28.09301466277984</v>
       </c>
       <c r="J19">
-        <v>6.411285923135337</v>
+        <v>10.72961892781602</v>
       </c>
       <c r="K19">
-        <v>15.82958339180639</v>
+        <v>10.84604573733128</v>
       </c>
       <c r="L19">
-        <v>8.174585649641909</v>
+        <v>10.28522981980593</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.21602215022579</v>
+        <v>26.68811788462914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.46914603412944</v>
+        <v>14.39281274677012</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.790216356466137</v>
+        <v>8.945592667296788</v>
       </c>
       <c r="E20">
-        <v>8.371515797674689</v>
+        <v>14.18600515256376</v>
       </c>
       <c r="F20">
-        <v>23.83656561576454</v>
+        <v>35.22550523342399</v>
       </c>
       <c r="G20">
-        <v>2.093566637075173</v>
+        <v>3.668865041576683</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.71259526458101</v>
+        <v>28.04993121596887</v>
       </c>
       <c r="J20">
-        <v>6.390613556099669</v>
+        <v>10.72248202733471</v>
       </c>
       <c r="K20">
-        <v>16.09937471918756</v>
+        <v>10.95181632854947</v>
       </c>
       <c r="L20">
-        <v>8.288442274812743</v>
+        <v>10.30488223351594</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.23073436049956</v>
+        <v>26.66156681695077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.26984807242768</v>
+        <v>14.60652404805404</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.910800954493702</v>
+        <v>8.950436144306174</v>
       </c>
       <c r="E21">
-        <v>8.305630702019311</v>
+        <v>14.14924621745489</v>
       </c>
       <c r="F21">
-        <v>24.11542294019608</v>
+        <v>35.1458080579575</v>
       </c>
       <c r="G21">
-        <v>2.087412772064532</v>
+        <v>3.666739877596523</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.35202624189118</v>
+        <v>27.91042837791157</v>
       </c>
       <c r="J21">
-        <v>6.322359547589672</v>
+        <v>10.69928059653472</v>
       </c>
       <c r="K21">
-        <v>16.97612519654687</v>
+        <v>11.30068368519893</v>
       </c>
       <c r="L21">
-        <v>8.663188965127022</v>
+        <v>10.37204690587552</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.30163228212644</v>
+        <v>26.57869174029213</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.77462969531816</v>
+        <v>14.74597726785426</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.990154545849995</v>
+        <v>8.954439092659872</v>
       </c>
       <c r="E22">
-        <v>8.26521180107032</v>
+        <v>14.12642274988436</v>
       </c>
       <c r="F22">
-        <v>24.31844192992155</v>
+        <v>35.10038418637834</v>
       </c>
       <c r="G22">
-        <v>2.083455655190228</v>
+        <v>3.665403632771919</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.12640509696134</v>
+        <v>27.82316373254231</v>
       </c>
       <c r="J22">
-        <v>6.27862299193184</v>
+        <v>10.68469441040266</v>
       </c>
       <c r="K22">
-        <v>17.52701292381601</v>
+        <v>11.52349832928536</v>
       </c>
       <c r="L22">
-        <v>8.902071470331812</v>
+        <v>10.41674452250343</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.36469183177573</v>
+        <v>26.52925738493009</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.50692164555408</v>
+        <v>14.67158107300226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.947757706721106</v>
+        <v>8.952226400179898</v>
       </c>
       <c r="E23">
-        <v>8.286539094689472</v>
+        <v>14.13849441490401</v>
       </c>
       <c r="F23">
-        <v>24.20815203940797</v>
+        <v>35.12401746214522</v>
       </c>
       <c r="G23">
-        <v>2.08556195792093</v>
+        <v>3.666112006631897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.24587408842839</v>
+        <v>27.86938123742278</v>
       </c>
       <c r="J23">
-        <v>6.301887903386248</v>
+        <v>10.6924266541478</v>
       </c>
       <c r="K23">
-        <v>17.23501473431362</v>
+        <v>11.40507368246812</v>
       </c>
       <c r="L23">
-        <v>8.775140695300445</v>
+        <v>10.39281810277256</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.32945932669029</v>
+        <v>26.55520811583854</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.45574854566982</v>
+        <v>14.38931886126644</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.788255910548258</v>
+        <v>8.945527725138858</v>
       </c>
       <c r="E24">
-        <v>8.372636501665228</v>
+        <v>14.18662627388588</v>
       </c>
       <c r="F24">
-        <v>23.83235056582627</v>
+        <v>35.22692017102044</v>
       </c>
       <c r="G24">
-        <v>2.093668365522759</v>
+        <v>3.6689006687328</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.71865133201994</v>
+        <v>28.05227738157081</v>
       </c>
       <c r="J24">
-        <v>6.391744198950021</v>
+        <v>10.7228710207855</v>
       </c>
       <c r="K24">
-        <v>16.08467084874746</v>
+        <v>10.94603148319802</v>
       </c>
       <c r="L24">
-        <v>8.282218504142284</v>
+        <v>10.30379863393286</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.22984753199458</v>
+        <v>26.66300107455356</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.24362192623865</v>
+        <v>14.08519528196635</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.619123009490138</v>
+        <v>8.941934597906721</v>
       </c>
       <c r="E25">
-        <v>8.476522755069503</v>
+        <v>14.24372024117176</v>
       </c>
       <c r="F25">
-        <v>23.51245747865476</v>
+        <v>35.36644897712846</v>
       </c>
       <c r="G25">
-        <v>2.102713903461408</v>
+        <v>3.672136307951125</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.26889404664284</v>
+        <v>28.26637859107042</v>
       </c>
       <c r="J25">
-        <v>6.492568055243224</v>
+        <v>10.75820343182761</v>
       </c>
       <c r="K25">
-        <v>14.74882519897338</v>
+        <v>10.43088526653685</v>
       </c>
       <c r="L25">
-        <v>7.726191717027171</v>
+        <v>10.21150375916381</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.18948852013296</v>
+        <v>26.79951645421159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8629528957341</v>
+        <v>12.28585831080101</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.942448215102498</v>
+        <v>5.497732628285002</v>
       </c>
       <c r="E2">
-        <v>14.29024043334591</v>
+        <v>8.562176207157364</v>
       </c>
       <c r="F2">
-        <v>35.49363219902544</v>
+        <v>23.34584216705647</v>
       </c>
       <c r="G2">
-        <v>3.674716527338106</v>
+        <v>2.109658627087172</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.43855552673963</v>
+        <v>17.70618957067836</v>
       </c>
       <c r="J2">
-        <v>10.78638394133868</v>
+        <v>6.570339088097561</v>
       </c>
       <c r="K2">
-        <v>10.03716883476748</v>
+        <v>13.68380242536471</v>
       </c>
       <c r="L2">
-        <v>10.14703833950733</v>
+        <v>7.298033400069463</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.91738179466552</v>
+        <v>17.21216870132035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.71410000655744</v>
+        <v>11.59771931485321</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.944783443083029</v>
+        <v>5.417756039631265</v>
       </c>
       <c r="E3">
-        <v>14.32457908004933</v>
+        <v>8.625799196916397</v>
       </c>
       <c r="F3">
-        <v>35.59502380556452</v>
+        <v>23.27336299721766</v>
       </c>
       <c r="G3">
-        <v>3.676589619671166</v>
+        <v>2.114554340516227</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.56434485224948</v>
+        <v>18.02161480413834</v>
       </c>
       <c r="J3">
-        <v>10.80684356715101</v>
+        <v>6.625336533074663</v>
       </c>
       <c r="K3">
-        <v>9.762976812841375</v>
+        <v>12.91175290578501</v>
       </c>
       <c r="L3">
-        <v>10.10566498267973</v>
+        <v>6.997617435125475</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.00805034755464</v>
+        <v>17.25753596036203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.62381312636515</v>
+        <v>11.15674009390597</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.947202664733933</v>
+        <v>5.369891317432257</v>
       </c>
       <c r="E4">
-        <v>14.34705506051124</v>
+        <v>8.667571064598754</v>
       </c>
       <c r="F4">
-        <v>35.66475591643341</v>
+        <v>23.24789018967702</v>
       </c>
       <c r="G4">
-        <v>3.677801436754113</v>
+        <v>2.11765728260286</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.64608231189364</v>
+        <v>18.22442125103157</v>
       </c>
       <c r="J4">
-        <v>10.82008088483117</v>
+        <v>6.66026250365785</v>
       </c>
       <c r="K4">
-        <v>9.591599268351661</v>
+        <v>12.41324512723787</v>
       </c>
       <c r="L4">
-        <v>10.08144789431045</v>
+        <v>6.808710561469016</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.06903210795875</v>
+        <v>17.29929642837183</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.58733578573416</v>
+        <v>10.97255024720382</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.948437097012734</v>
+        <v>5.350714921584576</v>
       </c>
       <c r="E5">
-        <v>14.35656493969131</v>
+        <v>8.685268112012325</v>
       </c>
       <c r="F5">
-        <v>35.69504952568217</v>
+        <v>23.24215297991302</v>
       </c>
       <c r="G5">
-        <v>3.678310832735795</v>
+        <v>2.118946640726956</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.68052474115756</v>
+        <v>18.30932777264981</v>
       </c>
       <c r="J5">
-        <v>10.82564542460316</v>
+        <v>6.674789910200429</v>
       </c>
       <c r="K5">
-        <v>9.521100875474929</v>
+        <v>12.20401839518141</v>
       </c>
       <c r="L5">
-        <v>10.07188413136261</v>
+        <v>6.730715718969147</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.09521638203076</v>
+        <v>17.31967918989828</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.58129884562683</v>
+        <v>10.94169982809266</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.948657109509115</v>
+        <v>5.347551037211784</v>
       </c>
       <c r="E6">
-        <v>14.35816525280937</v>
+        <v>8.688247272052644</v>
       </c>
       <c r="F6">
-        <v>35.7001930430493</v>
+        <v>23.24147649239953</v>
       </c>
       <c r="G6">
-        <v>3.678396359392875</v>
+        <v>2.119162254962895</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.68631240395978</v>
+        <v>18.32356205806359</v>
       </c>
       <c r="J6">
-        <v>10.82657970765976</v>
+        <v>6.677220087979745</v>
       </c>
       <c r="K6">
-        <v>9.509357793143588</v>
+        <v>12.16891170439135</v>
       </c>
       <c r="L6">
-        <v>10.07031467712126</v>
+        <v>6.717706839081676</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.09964476125155</v>
+        <v>17.32326315324331</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.62331985596005</v>
+        <v>11.1542739850103</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.947218305201934</v>
+        <v>5.369631344538623</v>
       </c>
       <c r="E7">
-        <v>14.34718189297951</v>
+        <v>8.66780700914588</v>
       </c>
       <c r="F7">
-        <v>35.66515687004336</v>
+        <v>23.2477942074962</v>
       </c>
       <c r="G7">
-        <v>3.677808243537588</v>
+        <v>2.117674569930077</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.64654222187172</v>
+        <v>18.22555721791075</v>
       </c>
       <c r="J7">
-        <v>10.82015524027694</v>
+        <v>6.66045722682316</v>
       </c>
       <c r="K7">
-        <v>9.59065104151934</v>
+        <v>12.41044793318036</v>
       </c>
       <c r="L7">
-        <v>10.0813176710755</v>
+        <v>6.807662651698672</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.06937984046473</v>
+        <v>17.29955786524472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.81142010146824</v>
+        <v>12.05250177785967</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.943049377041902</v>
+        <v>5.469909273280141</v>
       </c>
       <c r="E8">
-        <v>14.30179194482514</v>
+        <v>8.583547805276272</v>
       </c>
       <c r="F8">
-        <v>35.52703837477804</v>
+        <v>23.31681818604469</v>
       </c>
       <c r="G8">
-        <v>3.675349586261448</v>
+        <v>2.111326856505189</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.48099420037105</v>
+        <v>17.81302952059407</v>
       </c>
       <c r="J8">
-        <v>10.79329861139712</v>
+        <v>6.589064316527712</v>
       </c>
       <c r="K8">
-        <v>9.943312463051692</v>
+        <v>13.42271421859689</v>
       </c>
       <c r="L8">
-        <v>10.13253062847771</v>
+        <v>7.195432778229695</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.94754099510118</v>
+        <v>17.22484598333907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.18747270281207</v>
+        <v>13.66224022017654</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.942656480635094</v>
+        <v>5.675651279027508</v>
       </c>
       <c r="E9">
-        <v>14.22379383464124</v>
+        <v>8.440085364250455</v>
       </c>
       <c r="F9">
-        <v>35.31564413072081</v>
+        <v>23.60918584976216</v>
       </c>
       <c r="G9">
-        <v>3.67101578466635</v>
+        <v>2.099624323387351</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.19200511213835</v>
+        <v>17.07840006270103</v>
       </c>
       <c r="J9">
-        <v>10.74596668558367</v>
+        <v>6.458068060876696</v>
       </c>
       <c r="K9">
-        <v>10.60685246852416</v>
+        <v>15.21149829302093</v>
       </c>
       <c r="L9">
-        <v>10.24207000559595</v>
+        <v>7.916570091556752</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.75083174205186</v>
+        <v>17.19458742937849</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.46596879952408</v>
+        <v>14.74728672616053</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.947061782047582</v>
+        <v>5.831347810955116</v>
       </c>
       <c r="E10">
-        <v>14.17315622092067</v>
+        <v>8.348384977835495</v>
       </c>
       <c r="F10">
-        <v>35.19674087252421</v>
+        <v>23.92742543191585</v>
       </c>
       <c r="G10">
-        <v>3.668125942569788</v>
+        <v>2.091445612531786</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.00131468088281</v>
+        <v>16.58702464359123</v>
       </c>
       <c r="J10">
-        <v>10.71441246028514</v>
+        <v>6.367056955747204</v>
       </c>
       <c r="K10">
-        <v>11.07231816356467</v>
+        <v>16.40437331604114</v>
       </c>
       <c r="L10">
-        <v>10.32768109231356</v>
+        <v>8.418007283182268</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.63214772137665</v>
+        <v>17.25135863258735</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.59268458502804</v>
+        <v>15.21904043144746</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.950073359612887</v>
+        <v>5.902953712252477</v>
       </c>
       <c r="E11">
-        <v>14.15155810025895</v>
+        <v>8.309747135268374</v>
       </c>
       <c r="F11">
-        <v>35.15058419654195</v>
+        <v>24.09615403729332</v>
       </c>
       <c r="G11">
-        <v>3.666874510594266</v>
+        <v>2.087807679628249</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.9192400465124</v>
+        <v>16.37481590380347</v>
       </c>
       <c r="J11">
-        <v>10.70075032327397</v>
+        <v>6.326731002577521</v>
       </c>
       <c r="K11">
-        <v>11.27837328422968</v>
+        <v>16.92060307275182</v>
       </c>
       <c r="L11">
-        <v>10.36764707517952</v>
+        <v>8.639253406484876</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.58378647441403</v>
+        <v>17.29607842681878</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.64063442439151</v>
+        <v>15.39450667853459</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.951357550864952</v>
+        <v>5.930164015969576</v>
       </c>
       <c r="E12">
-        <v>14.14358539256637</v>
+        <v>8.295568026083343</v>
       </c>
       <c r="F12">
-        <v>35.13424862282314</v>
+        <v>24.16360333803765</v>
       </c>
       <c r="G12">
-        <v>3.666409660593614</v>
+        <v>2.086441250188603</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.88883080327494</v>
+        <v>16.29616975469198</v>
       </c>
       <c r="J12">
-        <v>10.69567584448621</v>
+        <v>6.311610338888494</v>
       </c>
       <c r="K12">
-        <v>11.35551605703915</v>
+        <v>17.11229201486369</v>
       </c>
       <c r="L12">
-        <v>10.38291956023395</v>
+        <v>8.722001547347112</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.56628435649182</v>
+        <v>17.31587096710828</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.63030971641653</v>
+        <v>15.35685859615621</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.951074601388738</v>
+        <v>5.924299844946513</v>
       </c>
       <c r="E13">
-        <v>14.14529330452456</v>
+        <v>8.29860147669058</v>
       </c>
       <c r="F13">
-        <v>35.13771591570468</v>
+        <v>24.14891712371991</v>
       </c>
       <c r="G13">
-        <v>3.666509372991796</v>
+        <v>2.086735049760502</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.89535016805547</v>
+        <v>16.31302995206655</v>
       </c>
       <c r="J13">
-        <v>10.69676432479405</v>
+        <v>6.314860255242646</v>
       </c>
       <c r="K13">
-        <v>11.33894239208632</v>
+        <v>17.07117707310427</v>
       </c>
       <c r="L13">
-        <v>10.37962434817795</v>
+        <v>8.704226838405292</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.57001764246348</v>
+        <v>17.31147894241204</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.59663036021647</v>
+        <v>15.2335399684871</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.950176135991001</v>
+        <v>5.905190518504043</v>
       </c>
       <c r="E14">
-        <v>14.15089805522068</v>
+        <v>8.308571490382915</v>
       </c>
       <c r="F14">
-        <v>35.14921734094607</v>
+        <v>24.10163127227457</v>
       </c>
       <c r="G14">
-        <v>3.666836086177445</v>
+        <v>2.087695042828519</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.91672482529457</v>
+        <v>16.36831078219956</v>
       </c>
       <c r="J14">
-        <v>10.70033085971595</v>
+        <v>6.325484040159994</v>
       </c>
       <c r="K14">
-        <v>11.28473798636821</v>
+        <v>16.93644947188002</v>
       </c>
       <c r="L14">
-        <v>10.36890083119933</v>
+        <v>8.64608208146347</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.58233029604178</v>
+        <v>17.29764868685246</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.57599513511468</v>
+        <v>15.15758921659235</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.949644489253833</v>
+        <v>5.893497337837199</v>
       </c>
       <c r="E15">
-        <v>14.15435793958633</v>
+        <v>8.314737602454841</v>
       </c>
       <c r="F15">
-        <v>35.15641120304306</v>
+        <v>24.07313348198551</v>
       </c>
       <c r="G15">
-        <v>3.66703738343275</v>
+        <v>2.088284500296353</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.92990472522066</v>
+        <v>16.40239766143369</v>
       </c>
       <c r="J15">
-        <v>10.70252835501635</v>
+        <v>6.332010792272373</v>
       </c>
       <c r="K15">
-        <v>11.25141895437828</v>
+        <v>16.85343078492</v>
       </c>
       <c r="L15">
-        <v>10.36235011127636</v>
+        <v>8.610330994781163</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.58997785184655</v>
+        <v>17.28955363180614</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.45768485319795</v>
+        <v>14.71601363683047</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.946885149334015</v>
+        <v>5.826682373033323</v>
       </c>
       <c r="E16">
-        <v>14.17459657443543</v>
+        <v>8.350972785772354</v>
       </c>
       <c r="F16">
-        <v>35.19991714720351</v>
+        <v>23.91689033618444</v>
       </c>
       <c r="G16">
-        <v>3.668208994008697</v>
+        <v>2.091684963202117</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.00677235645162</v>
+        <v>16.60112775160303</v>
       </c>
       <c r="J16">
-        <v>10.71531920109398</v>
+        <v>6.369713590895548</v>
       </c>
       <c r="K16">
-        <v>11.0587315710272</v>
+        <v>16.37010495247192</v>
       </c>
       <c r="L16">
-        <v>10.32508903779391</v>
+        <v>8.403406098014599</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.63542166544155</v>
+        <v>17.2488283889087</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.38508453050104</v>
+        <v>14.43949748555341</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.945449673219951</v>
+        <v>5.785880487727034</v>
       </c>
       <c r="E17">
-        <v>14.18737996610856</v>
+        <v>8.373996713686026</v>
       </c>
       <c r="F17">
-        <v>35.22864012893637</v>
+        <v>23.82725766295269</v>
       </c>
       <c r="G17">
-        <v>3.668943887594232</v>
+        <v>2.093791707997116</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.05512381651168</v>
+        <v>16.72599819154892</v>
       </c>
       <c r="J17">
-        <v>10.72334290538214</v>
+        <v>6.393115167237603</v>
       </c>
       <c r="K17">
-        <v>10.93901696276289</v>
+        <v>16.06683354914144</v>
       </c>
       <c r="L17">
-        <v>10.30248604629056</v>
+        <v>8.274671259722979</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.6647429532391</v>
+        <v>17.22878491979104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.34333150794043</v>
+        <v>14.27839827345183</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.944718934342845</v>
+        <v>5.762486617324101</v>
       </c>
       <c r="E18">
-        <v>14.19486794696303</v>
+        <v>8.387528478249218</v>
       </c>
       <c r="F18">
-        <v>35.24590740785779</v>
+        <v>23.7779524533222</v>
       </c>
       <c r="G18">
-        <v>3.669372527565439</v>
+        <v>2.095011271379751</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.08337405451839</v>
+        <v>16.79888011572621</v>
       </c>
       <c r="J18">
-        <v>10.72802309175045</v>
+        <v>6.406676657411392</v>
       </c>
       <c r="K18">
-        <v>10.86962859021887</v>
+        <v>15.88991280025117</v>
       </c>
       <c r="L18">
-        <v>10.28958203908642</v>
+        <v>8.199982829998451</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.6821374786535</v>
+        <v>17.21902649936261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.3291966533031</v>
+        <v>14.22350132980147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.944487852531104</v>
+        <v>5.754579153770369</v>
       </c>
       <c r="E19">
-        <v>14.19742650798636</v>
+        <v>8.392159454415879</v>
       </c>
       <c r="F19">
-        <v>35.25188196569427</v>
+        <v>23.76164136773866</v>
       </c>
       <c r="G19">
-        <v>3.669518680719273</v>
+        <v>2.095425558277963</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.09301466277984</v>
+        <v>16.8237363095016</v>
       </c>
       <c r="J19">
-        <v>10.72961892781602</v>
+        <v>6.411285923135335</v>
       </c>
       <c r="K19">
-        <v>10.84604573733128</v>
+        <v>15.82958339180646</v>
       </c>
       <c r="L19">
-        <v>10.28522981980593</v>
+        <v>8.17458564964188</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.68811788462914</v>
+        <v>17.21602215022569</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.39281274677012</v>
+        <v>14.46914603412946</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.945592667296788</v>
+        <v>5.7902163564661</v>
       </c>
       <c r="E20">
-        <v>14.18600515256376</v>
+        <v>8.371515797674634</v>
       </c>
       <c r="F20">
-        <v>35.22550523342399</v>
+        <v>23.83656561576449</v>
       </c>
       <c r="G20">
-        <v>3.668865041576683</v>
+        <v>2.093566637075174</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.04993121596887</v>
+        <v>16.71259526458106</v>
       </c>
       <c r="J20">
-        <v>10.72248202733471</v>
+        <v>6.390613556099701</v>
       </c>
       <c r="K20">
-        <v>10.95181632854947</v>
+        <v>16.09937471918754</v>
       </c>
       <c r="L20">
-        <v>10.30488223351594</v>
+        <v>8.288442274812715</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.66156681695077</v>
+        <v>17.23073436049953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.60652404805404</v>
+        <v>15.2698480724277</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.950436144306174</v>
+        <v>5.910800954493755</v>
       </c>
       <c r="E21">
-        <v>14.14924621745489</v>
+        <v>8.305630702019371</v>
       </c>
       <c r="F21">
-        <v>35.1458080579575</v>
+        <v>24.11542294019602</v>
       </c>
       <c r="G21">
-        <v>3.666739877596523</v>
+        <v>2.087412772064533</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.91042837791157</v>
+        <v>16.35202624189116</v>
       </c>
       <c r="J21">
-        <v>10.69928059653472</v>
+        <v>6.322359547589773</v>
       </c>
       <c r="K21">
-        <v>11.30068368519893</v>
+        <v>16.9761251965469</v>
       </c>
       <c r="L21">
-        <v>10.37204690587552</v>
+        <v>8.663188965126983</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.57869174029213</v>
+        <v>17.30163228212639</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.74597726785426</v>
+        <v>15.77462969531814</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.954439092659872</v>
+        <v>5.990154545850019</v>
       </c>
       <c r="E22">
-        <v>14.12642274988436</v>
+        <v>8.26521180107045</v>
       </c>
       <c r="F22">
-        <v>35.10038418637834</v>
+        <v>24.31844192992158</v>
       </c>
       <c r="G22">
-        <v>3.665403632771919</v>
+        <v>2.083455655190361</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.82316373254231</v>
+        <v>16.12640509696138</v>
       </c>
       <c r="J22">
-        <v>10.68469441040266</v>
+        <v>6.278622991931872</v>
       </c>
       <c r="K22">
-        <v>11.52349832928536</v>
+        <v>17.527012923816</v>
       </c>
       <c r="L22">
-        <v>10.41674452250343</v>
+        <v>8.902071470331826</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.52925738493009</v>
+        <v>17.36469183177574</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.67158107300226</v>
+        <v>15.50692164555406</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.952226400179898</v>
+        <v>5.947757706721196</v>
       </c>
       <c r="E23">
-        <v>14.13849441490401</v>
+        <v>8.286539094689468</v>
       </c>
       <c r="F23">
-        <v>35.12401746214522</v>
+        <v>24.20815203940781</v>
       </c>
       <c r="G23">
-        <v>3.666112006631897</v>
+        <v>2.085561957920931</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.86938123742278</v>
+        <v>16.24587408842827</v>
       </c>
       <c r="J23">
-        <v>10.6924266541478</v>
+        <v>6.301887903386248</v>
       </c>
       <c r="K23">
-        <v>11.40507368246812</v>
+        <v>17.23501473431367</v>
       </c>
       <c r="L23">
-        <v>10.39281810277256</v>
+        <v>8.775140695300433</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.55520811583854</v>
+        <v>17.32945932669015</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.38931886126644</v>
+        <v>14.45574854566987</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.945527725138858</v>
+        <v>5.788255910548347</v>
       </c>
       <c r="E24">
-        <v>14.18662627388588</v>
+        <v>8.372636501665358</v>
       </c>
       <c r="F24">
-        <v>35.22692017102044</v>
+        <v>23.8323505658261</v>
       </c>
       <c r="G24">
-        <v>3.6689006687328</v>
+        <v>2.093668365522892</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.05227738157081</v>
+        <v>16.71865133201981</v>
       </c>
       <c r="J24">
-        <v>10.7228710207855</v>
+        <v>6.391744198950057</v>
       </c>
       <c r="K24">
-        <v>10.94603148319802</v>
+        <v>16.08467084874752</v>
       </c>
       <c r="L24">
-        <v>10.30379863393286</v>
+        <v>8.282218504142264</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.66300107455356</v>
+        <v>17.22984753199443</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.08519528196635</v>
+        <v>13.24362192623867</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.941934597906721</v>
+        <v>5.619123009490244</v>
       </c>
       <c r="E25">
-        <v>14.24372024117176</v>
+        <v>8.476522755069634</v>
       </c>
       <c r="F25">
-        <v>35.36644897712846</v>
+        <v>23.51245747865468</v>
       </c>
       <c r="G25">
-        <v>3.672136307951125</v>
+        <v>2.102713903461541</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.26637859107042</v>
+        <v>17.26889404664275</v>
       </c>
       <c r="J25">
-        <v>10.75820343182761</v>
+        <v>6.492568055243258</v>
       </c>
       <c r="K25">
-        <v>10.43088526653685</v>
+        <v>14.74882519897345</v>
       </c>
       <c r="L25">
-        <v>10.21150375916381</v>
+        <v>7.72619171702719</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.79951645421159</v>
+        <v>17.18948852013283</v>
       </c>
     </row>
   </sheetData>
